--- a/bin/resource/excel/item.xlsx
+++ b/bin/resource/excel/item.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opensource\ark_new\bin\resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ARK\bin\resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9807174B-1A60-4F4B-89BE-5E656391506A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataNode" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>yangpengbo</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,8 +58,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -223,10 +224,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -309,11 +306,14 @@
     <t>comment</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>uint64</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,7 +456,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -729,53 +729,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B282" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:E307"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="43.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="43.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>48</v>
@@ -784,7 +784,7 @@
         <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>42</v>
@@ -805,9 +805,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -852,54 +852,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -907,10 +907,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -920,7 +920,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -946,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>9</v>
@@ -967,7 +967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100001</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>100002</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>100003</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>100004</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>100005</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>100006</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100007</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>100008</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>100009</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>100010</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>100011</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>100012</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>100013</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>100014</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>100015</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>100016</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>100017</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>100018</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100019</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>100020</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>100021</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>100022</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>100023</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>100024</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>100025</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>100026</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>100027</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>100028</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>100029</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>100030</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>100031</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>100032</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>100033</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>100034</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>100035</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>100036</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>100037</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>100038</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>100039</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>100040</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>100041</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>100042</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>100043</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>100044</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>100045</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>100046</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>100047</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>100048</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>100049</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>100050</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>100051</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>100052</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>100053</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>100054</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>100055</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>100056</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>100057</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>100058</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>100059</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>100060</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>100061</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>100062</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>100063</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>100064</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>100065</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>100066</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>100067</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>100068</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>100069</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>100070</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>100071</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>100072</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>100073</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>100074</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>100075</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>100076</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>100077</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>100078</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>100079</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>100080</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>100081</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>100082</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>100083</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>100084</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>100085</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>100086</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>100087</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>100088</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>100089</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>100090</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>100091</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>100092</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>100093</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>100094</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>100095</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100096</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100097</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>100098</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>100099</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>100100</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>100101</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>100102</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>100103</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>100104</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>100105</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>100106</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>100107</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>100108</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>100109</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>100110</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>100111</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>100112</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>100113</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>100114</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>100115</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>100116</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>100117</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>100118</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>100119</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>100120</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>100121</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>100122</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>100123</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>100124</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>100125</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>100126</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>100127</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>100128</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>100129</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>100130</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>100131</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>100132</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>100133</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>100134</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>100135</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>100136</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>100137</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>100138</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>100139</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>100140</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>100141</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>100142</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>100143</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>100144</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>100145</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>100146</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>100147</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>100148</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>100149</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>100150</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>100151</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>100152</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>100153</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>100154</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>100155</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>100156</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>100157</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>100158</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>100159</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>100160</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>100161</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>100162</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>100163</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>100164</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>100165</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>100166</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>100167</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>100168</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>100169</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>100170</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>100171</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>100172</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>100173</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>100174</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>100175</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>100176</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>100177</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>100178</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>100179</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>100180</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>100181</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>100182</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>100183</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>100184</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>100185</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>100186</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>100187</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>100188</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>100189</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>100190</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>100191</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>100192</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>100193</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>100194</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>100195</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>100196</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>100197</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>100198</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>100199</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>100200</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>100201</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>100202</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>100203</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>100204</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>100205</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>100206</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>100207</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>100208</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>100209</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>100210</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>100211</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>100212</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>100213</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>100214</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>100215</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>100216</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>100217</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>100218</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>100219</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>100220</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>100221</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>100222</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>100223</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>100224</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>100225</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>100226</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>100227</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>100228</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>100229</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>100230</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>100231</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>100232</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>100233</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>100234</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>100235</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>100236</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>100237</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>100238</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>100239</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>100240</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>100241</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>100242</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>100243</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>100244</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>100245</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>100246</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>100247</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>100248</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>100249</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>100250</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>100251</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>100252</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>100253</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>100254</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>100255</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>100256</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>100257</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>100258</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>100259</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>100260</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>100261</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>100262</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>100263</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>100264</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>100265</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>100266</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>100267</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>100268</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>100269</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>100270</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>100271</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>100272</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>100273</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>100274</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>100275</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>100276</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>100277</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>100278</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>100279</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>100280</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>100281</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>100282</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>100283</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>100284</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>100285</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>100286</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>100287</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>100288</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>100289</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>100290</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>100291</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>100292</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>100293</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>100294</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>100295</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>100296</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>100297</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>100298</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>100299</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>100300</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>100301</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>100302</v>
       </c>
